--- a/Data/Distribution of fans in Silesian Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Silesian Voivodship/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\upper-silesia-fans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\upper-silesia-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F53CC2-27EB-450D-B9A9-25EAA1650926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365A86F6-FB87-4ADA-9326-5C750D87CE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2400" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch Ch." sheetId="1" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="GKS K." sheetId="7" r:id="rId6"/>
     <sheet name="Zagłębie S." sheetId="8" r:id="rId7"/>
     <sheet name="GKS T." sheetId="9" r:id="rId8"/>
-    <sheet name="TSP BB." sheetId="10" r:id="rId9"/>
+    <sheet name="Podbeskidzie BB." sheetId="10" r:id="rId9"/>
     <sheet name="GKS J." sheetId="11" r:id="rId10"/>
     <sheet name="Ruch R." sheetId="12" r:id="rId11"/>
     <sheet name="Row R." sheetId="13" r:id="rId12"/>
     <sheet name="Góral Ż." sheetId="14" r:id="rId13"/>
     <sheet name="BKS BB." sheetId="15" r:id="rId14"/>
     <sheet name="Odra W." sheetId="19" r:id="rId15"/>
-    <sheet name="Stats" sheetId="16" r:id="rId16"/>
+    <sheet name="Szombierki B." sheetId="20" r:id="rId16"/>
+    <sheet name="Stats" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="214">
   <si>
     <t>Brenna</t>
   </si>
@@ -563,9 +564,6 @@
     <t>BKS BB.</t>
   </si>
   <si>
-    <t>TSP BB.</t>
-  </si>
-  <si>
     <t>Katowice (280 000)</t>
   </si>
   <si>
@@ -687,18 +685,35 @@
   </si>
   <si>
     <t>Największe miasto bez FC</t>
+  </si>
+  <si>
+    <t>Szombierki B.</t>
+  </si>
+  <si>
+    <t>Podbeskidzie BB.</t>
+  </si>
+  <si>
+    <t>City - Szombierki B.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,7 +897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,8 +1011,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1033,156 +1054,193 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="8">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="8">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="15">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="13">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="13">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="16">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="16">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="11">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="11">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="20">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="13" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="13" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="8" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="23">
+    <cellStyle name="60% - Accent6" xfId="22" builtinId="52"/>
     <cellStyle name="Accent1" xfId="7" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -2072,8 +2130,8 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>196</v>
+      <c r="A30" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3728,7 +3786,7 @@
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3910,12 +3968,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3925,7 +3983,7 @@
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3942,16 +4000,45 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BD9F89-C3AE-4E5C-B51E-82731BB3659B}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" customWidth="1"/>
@@ -3959,28 +4046,27 @@
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>209</v>
-      </c>
       <c r="J1" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>157</v>
       </c>
@@ -3992,16 +4078,16 @@
         <v>14</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>158</v>
       </c>
@@ -4013,13 +4099,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>162</v>
       </c>
@@ -4031,13 +4117,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>163</v>
       </c>
@@ -4049,13 +4135,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>159</v>
       </c>
@@ -4067,13 +4153,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>160</v>
       </c>
@@ -4085,13 +4171,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>168</v>
       </c>
@@ -4103,13 +4189,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>161</v>
       </c>
@@ -4121,13 +4207,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>164</v>
       </c>
@@ -4139,31 +4225,31 @@
         <v>3</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="B11" s="20">
-        <f>COUNTA('TSP BB.'!A:A) - 1</f>
+        <f>COUNTA('Podbeskidzie BB.'!A:A) - 1</f>
         <v>9</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>169</v>
       </c>
@@ -4175,17 +4261,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="35">
         <f>COUNTA('Row R.'!A:A) - 1</f>
         <v>5</v>
       </c>
@@ -4193,17 +4279,17 @@
         <v>1</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="20">
         <f>COUNTA('GKS J.'!A:A) - 1</f>
         <v>4</v>
       </c>
@@ -4211,17 +4297,17 @@
         <v>1</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="20">
         <f>COUNTA('Ruch R.'!A:A) - 1</f>
         <v>4</v>
       </c>
@@ -4229,27 +4315,45 @@
         <v>0</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="36">
+        <f>COUNTA('Szombierki B.'!A:A) - 1</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="20">
+        <v>4</v>
+      </c>
+      <c r="C17" s="23">
+        <v>2</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="30">
-        <v>4</v>
-      </c>
-      <c r="C16" s="23">
-        <v>2</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>194</v>
+      <c r="E17" s="23" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4330,7 +4434,7 @@
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5288,8 +5392,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>202</v>
+      <c r="A2" s="31" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5384,7 +5488,7 @@
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5398,13 +5502,13 @@
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5429,12 +5533,12 @@
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5782,7 +5886,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">

--- a/Data/Distribution of fans in Silesian Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Silesian Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\upper-silesia-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365A86F6-FB87-4ADA-9326-5C750D87CE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FE3FDB-1E6C-4931-8AA1-3E3C1B9656EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch Ch." sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="214">
   <si>
     <t>Brenna</t>
   </si>
@@ -700,7 +700,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +896,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="22">
     <fill>
@@ -1018,7 +1028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1078,6 +1088,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1128,7 +1151,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,6 +1259,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1553,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,7 +2642,7 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="6"/>
@@ -2630,7 +2662,7 @@
       <c r="P54" s="6"/>
     </row>
     <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="37" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="6"/>
@@ -4031,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4093,7 +4125,7 @@
       </c>
       <c r="B3" s="20">
         <f>COUNTA('Górnik Z.'!A:A) - 1</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="20">
         <v>13</v>
@@ -4368,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B14093-7FE0-4DFC-9F73-6FE5FD4CE198}">
   <dimension ref="A1:A112"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4518,132 +4550,134 @@
       </c>
     </row>
     <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>21</v>
+      <c r="A29" s="38" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
     </row>
     <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
@@ -4820,10 +4854,11 @@
       <c r="A112" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A53">
-    <sortCondition ref="A2:A53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A54">
+    <sortCondition ref="A2:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Distribution of fans in Silesian Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Silesian Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\upper-silesia-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FE3FDB-1E6C-4931-8AA1-3E3C1B9656EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE2FDDD-8B91-420E-908F-050BF0E1351B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch Ch." sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="219">
   <si>
     <t>Brenna</t>
   </si>
@@ -694,6 +694,21 @@
   </si>
   <si>
     <t>City - Szombierki B.</t>
+  </si>
+  <si>
+    <t>USA (Emigracja)</t>
+  </si>
+  <si>
+    <t>Niemcy (Emigracja)</t>
+  </si>
+  <si>
+    <t>Irlandia (Emigracja)</t>
+  </si>
+  <si>
+    <t>Anglia (Emigracja)</t>
+  </si>
+  <si>
+    <t>Holandia (Emigracja)</t>
   </si>
 </sst>
 </file>
@@ -900,7 +915,7 @@
       <b/>
       <i/>
       <sz val="16"/>
-      <color indexed="9"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1151,7 +1166,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1267,8 +1282,11 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="1" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -1583,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P112"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,8 +1620,8 @@
       <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
+      <c r="A2" s="30" t="s">
+        <v>217</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1623,7 +1641,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1643,7 +1661,7 @@
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1663,7 +1681,7 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1683,7 +1701,7 @@
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1703,7 +1721,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1723,7 +1741,7 @@
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1743,7 +1761,7 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1763,7 +1781,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1782,8 +1800,8 @@
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>81</v>
+      <c r="A11" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1802,8 +1820,8 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
+      <c r="A12" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1823,7 +1841,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1843,7 +1861,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1863,7 +1881,7 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1883,7 +1901,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1902,8 +1920,8 @@
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
+      <c r="A17" s="30" t="s">
+        <v>218</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1923,7 +1941,7 @@
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1942,8 +1960,8 @@
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
+      <c r="A19" s="30" t="s">
+        <v>216</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1963,7 +1981,7 @@
     </row>
     <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1983,7 +2001,7 @@
     </row>
     <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2003,7 +2021,7 @@
     </row>
     <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2023,7 +2041,7 @@
     </row>
     <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2043,7 +2061,7 @@
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2063,7 +2081,7 @@
     </row>
     <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2083,7 +2101,7 @@
     </row>
     <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2103,7 +2121,7 @@
     </row>
     <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2123,7 +2141,7 @@
     </row>
     <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2143,7 +2161,7 @@
     </row>
     <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2162,8 +2180,8 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>195</v>
+      <c r="A30" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2183,7 +2201,7 @@
     </row>
     <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2203,7 +2221,7 @@
     </row>
     <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2222,8 +2240,8 @@
       <c r="P32" s="6"/>
     </row>
     <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>83</v>
+      <c r="A33" s="30" t="s">
+        <v>215</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2242,8 +2260,8 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>45</v>
+      <c r="A34" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2263,7 +2281,7 @@
     </row>
     <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2283,7 +2301,7 @@
     </row>
     <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2303,7 +2321,7 @@
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2323,7 +2341,7 @@
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2343,7 +2361,7 @@
     </row>
     <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2363,7 +2381,7 @@
     </row>
     <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2383,7 +2401,7 @@
     </row>
     <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2403,7 +2421,7 @@
     </row>
     <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2423,7 +2441,7 @@
     </row>
     <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2443,7 +2461,7 @@
     </row>
     <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2463,7 +2481,7 @@
     </row>
     <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2483,7 +2501,7 @@
     </row>
     <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2503,7 +2521,7 @@
     </row>
     <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2523,7 +2541,7 @@
     </row>
     <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2543,7 +2561,7 @@
     </row>
     <row r="49" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2563,7 +2581,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2583,7 +2601,7 @@
     </row>
     <row r="51" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2603,7 +2621,7 @@
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2623,7 +2641,7 @@
     </row>
     <row r="53" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2642,8 +2660,8 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
-        <v>55</v>
+      <c r="A54" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2662,8 +2680,8 @@
       <c r="P54" s="6"/>
     </row>
     <row r="55" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
-        <v>44</v>
+      <c r="A55" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2683,7 +2701,7 @@
     </row>
     <row r="56" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2702,8 +2720,8 @@
       <c r="P56" s="6"/>
     </row>
     <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>37</v>
+      <c r="A57" s="30" t="s">
+        <v>214</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2723,7 +2741,7 @@
     </row>
     <row r="58" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2742,7 +2760,9 @@
       <c r="P58" s="6"/>
     </row>
     <row r="59" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+      <c r="A59" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2760,7 +2780,9 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="A60" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -2778,7 +2800,9 @@
       <c r="P60" s="6"/>
     </row>
     <row r="61" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
+      <c r="A61" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2796,7 +2820,9 @@
       <c r="P61" s="6"/>
     </row>
     <row r="62" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="A62" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2814,7 +2840,9 @@
       <c r="P62" s="6"/>
     </row>
     <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+      <c r="A63" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -3698,9 +3726,24 @@
     <row r="112" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
     </row>
+    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A58">
-    <sortCondition ref="A2:A58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A63">
+    <sortCondition ref="A35:A63"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -3987,10 +4030,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB63ED4-4E98-4294-A0BB-162EB6A654D7}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4004,28 +4047,33 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>181</v>
+      <c r="A2" s="40" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A5">
-    <sortCondition ref="A2:A5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
+    <sortCondition ref="A2:A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4104,7 +4152,7 @@
       </c>
       <c r="B2" s="22">
         <f>COUNTA('Ruch Ch.'!A:A) - 1</f>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" s="22">
         <v>14</v>
@@ -4125,7 +4173,7 @@
       </c>
       <c r="B3" s="20">
         <f>COUNTA('Górnik Z.'!A:A) - 1</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="20">
         <v>13</v>
@@ -4143,7 +4191,7 @@
       </c>
       <c r="B4" s="20">
         <f>COUNTA('GKS K.'!A:A) - 1</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4" s="20">
         <v>6</v>
@@ -4179,7 +4227,7 @@
       </c>
       <c r="B6" s="20">
         <f>COUNTA('Polonia B.'!A:A) - 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="20">
         <v>2</v>
@@ -4398,10 +4446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B14093-7FE0-4DFC-9F73-6FE5FD4CE198}">
-  <dimension ref="A1:A112"/>
+  <dimension ref="A1:A114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4415,275 +4463,279 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>99</v>
+      <c r="A2" s="38" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>185</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-    </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
     </row>
     <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -4853,9 +4905,15 @@
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
     </row>
+    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A54">
-    <sortCondition ref="A2:A54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A56">
+    <sortCondition ref="A38:A56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -4864,10 +4922,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D58199-5732-4345-B192-667E056E9206}">
-  <dimension ref="A1:A111"/>
+  <dimension ref="A1:A112"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4906,57 +4964,59 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>119</v>
+      <c r="A7" s="39" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -5240,9 +5300,12 @@
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
     </row>
+    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A16">
-    <sortCondition ref="A2:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A17">
+    <sortCondition ref="A10:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5340,7 +5403,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5410,10 +5473,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F558FF6-EAD4-40C5-B66E-B8C70281DB1C}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5428,257 +5491,272 @@
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>9</v>
+      <c r="A14" s="31" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>200</v>
+      <c r="A30" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>198</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A51">
-    <sortCondition ref="A22:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A54">
+    <sortCondition ref="A45:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Distribution of fans in Silesian Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Silesian Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\upper-silesia-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE2FDDD-8B91-420E-908F-050BF0E1351B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D25F62-07D8-4B07-A8E6-5ED09E6FCB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2400" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch Ch." sheetId="1" r:id="rId1"/>
@@ -258,9 +258,6 @@
     <t>Chełm (Lubelskie)</t>
   </si>
   <si>
-    <t>Gródków (Opolskie)</t>
-  </si>
-  <si>
     <t>Bolesław (Małopolskie)</t>
   </si>
   <si>
@@ -709,6 +706,9 @@
   </si>
   <si>
     <t>Holandia (Emigracja)</t>
+  </si>
+  <si>
+    <t>Grodków (Opolskie)</t>
   </si>
 </sst>
 </file>
@@ -1614,14 +1614,14 @@
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="50" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="57" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="61" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3765,7 +3765,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3775,7 +3775,7 @@
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3808,7 +3808,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3818,7 +3818,7 @@
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3851,7 +3851,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -3899,67 +3899,67 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3982,17 +3982,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4002,22 +4002,22 @@
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4032,7 +4032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB63ED4-4E98-4294-A0BB-162EB6A654D7}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4043,17 +4043,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4063,7 +4063,7 @@
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4094,7 +4094,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4128,27 +4128,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>208</v>
-      </c>
       <c r="J1" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="22">
         <f>COUNTA('Ruch Ch.'!A:A) - 1</f>
@@ -4158,18 +4158,18 @@
         <v>14</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="20">
         <f>COUNTA('Górnik Z.'!A:A) - 1</f>
@@ -4179,15 +4179,15 @@
         <v>13</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="20">
         <f>COUNTA('GKS K.'!A:A) - 1</f>
@@ -4197,15 +4197,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="20">
         <f>COUNTA('Zagłębie S.'!A:A) - 1</f>
@@ -4215,15 +4215,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="20">
         <f>COUNTA('Polonia B.'!A:A) - 1</f>
@@ -4233,15 +4233,15 @@
         <v>2</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="20">
         <f>COUNTA('Piast G.'!A:A) - 1</f>
@@ -4251,15 +4251,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="20">
         <f>COUNTA('Góral Ż.'!A:A) - 1</f>
@@ -4269,15 +4269,15 @@
         <v>10</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="20">
         <f>COUNTA('Raków Cz.'!A:A) - 1</f>
@@ -4287,15 +4287,15 @@
         <v>8</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="20">
         <f>COUNTA('GKS T.'!A:A) - 1</f>
@@ -4305,15 +4305,15 @@
         <v>3</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="20">
         <f>COUNTA('Podbeskidzie BB.'!A:A) - 1</f>
@@ -4323,15 +4323,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="20">
         <f>COUNTA('BKS BB.'!A:A) - 1</f>
@@ -4341,15 +4341,15 @@
         <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="35">
         <f>COUNTA('Row R.'!A:A) - 1</f>
@@ -4359,15 +4359,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="20">
         <f>COUNTA('GKS J.'!A:A) - 1</f>
@@ -4377,15 +4377,15 @@
         <v>1</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="20">
         <f>COUNTA('Ruch R.'!A:A) - 1</f>
@@ -4395,15 +4395,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="36">
         <f>COUNTA('Szombierki B.'!A:A) - 1</f>
@@ -4413,15 +4413,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="20">
         <v>4</v>
@@ -4430,10 +4430,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4459,17 +4459,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4504,7 +4504,7 @@
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4519,12 +4519,12 @@
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4534,7 +4534,7 @@
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4544,17 +4544,17 @@
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4569,7 +4569,7 @@
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4604,12 +4604,12 @@
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4634,7 +4634,7 @@
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4674,7 +4674,7 @@
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4704,12 +4704,12 @@
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4719,17 +4719,17 @@
     </row>
     <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4935,12 +4935,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4955,22 +4955,22 @@
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4980,7 +4980,7 @@
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -4990,7 +4990,7 @@
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5015,7 +5015,7 @@
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5326,7 +5326,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5341,7 +5341,7 @@
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5351,7 +5351,7 @@
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5361,7 +5361,7 @@
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5386,7 +5386,7 @@
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5413,17 +5413,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5433,7 +5433,7 @@
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5443,27 +5443,27 @@
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5475,8 +5475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F558FF6-EAD4-40C5-B66E-B8C70281DB1C}">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5486,17 +5486,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5506,12 +5506,12 @@
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5526,12 +5526,12 @@
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5546,12 +5546,12 @@
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5571,12 +5571,12 @@
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5591,12 +5591,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5606,17 +5606,17 @@
     </row>
     <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5631,7 +5631,7 @@
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5641,17 +5641,17 @@
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5701,7 +5701,7 @@
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5721,7 +5721,7 @@
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5731,7 +5731,7 @@
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5741,7 +5741,7 @@
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5777,32 +5777,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5812,12 +5812,12 @@
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5827,7 +5827,7 @@
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5837,7 +5837,7 @@
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5847,12 +5847,12 @@
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5882,22 +5882,22 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5928,7 +5928,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5943,12 +5943,12 @@
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5963,12 +5963,12 @@
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -5999,12 +5999,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
@@ -6019,32 +6019,32 @@
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Distribution of fans in Silesian Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Silesian Voivodship/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\upper-silesia-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D25F62-07D8-4B07-A8E6-5ED09E6FCB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD6648B-36AE-461C-81B5-14BEB65B3A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2400" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch Ch." sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="221">
   <si>
     <t>Brenna</t>
   </si>
@@ -709,6 +709,12 @@
   </si>
   <si>
     <t>Grodków (Opolskie)</t>
+  </si>
+  <si>
+    <t>Wejherowo (Pomorskie)</t>
+  </si>
+  <si>
+    <t>Żarnowiec</t>
   </si>
 </sst>
 </file>
@@ -1601,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,7 +2786,7 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B60" s="6"/>
@@ -2800,7 +2806,7 @@
       <c r="P60" s="6"/>
     </row>
     <row r="61" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="37" t="s">
         <v>84</v>
       </c>
       <c r="B61" s="6"/>
@@ -2841,7 +2847,7 @@
     </row>
     <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2860,7 +2866,9 @@
       <c r="P63" s="6"/>
     </row>
     <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
+      <c r="A64" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -3741,9 +3749,12 @@
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
     </row>
+    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A63">
-    <sortCondition ref="A35:A63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A64">
+    <sortCondition ref="A52:A64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -3969,10 +3980,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E0BBB1-6F4D-4FD5-A901-50EDA42291B3}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,12 +4028,27 @@
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A8">
-    <sortCondition ref="A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
+    <sortCondition ref="A7:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4030,10 +4056,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB63ED4-4E98-4294-A0BB-162EB6A654D7}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,17 +4089,22 @@
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
-    <sortCondition ref="A2:A6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
+    <sortCondition ref="A4:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4111,8 +4142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,7 +4183,7 @@
       </c>
       <c r="B2" s="22">
         <f>COUNTA('Ruch Ch.'!A:A) - 1</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="22">
         <v>14</v>
@@ -4173,9 +4204,9 @@
       </c>
       <c r="B3" s="20">
         <f>COUNTA('Górnik Z.'!A:A) - 1</f>
-        <v>55</v>
-      </c>
-      <c r="C3" s="20">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6">
         <v>13</v>
       </c>
       <c r="D3" s="22" t="s">
@@ -4191,10 +4222,10 @@
       </c>
       <c r="B4" s="20">
         <f>COUNTA('GKS K.'!A:A) - 1</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>169</v>
@@ -4335,7 +4366,7 @@
       </c>
       <c r="B12" s="20">
         <f>COUNTA('BKS BB.'!A:A) - 1</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="20">
         <v>2</v>
@@ -4424,7 +4455,8 @@
         <v>181</v>
       </c>
       <c r="B17" s="20">
-        <v>4</v>
+        <f>COUNTA('Odra W.'!A:A) - 1</f>
+        <v>6</v>
       </c>
       <c r="C17" s="23">
         <v>2</v>
@@ -4446,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B14093-7FE0-4DFC-9F73-6FE5FD4CE198}">
-  <dimension ref="A1:A114"/>
+  <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4624,127 +4656,133 @@
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-    </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-    </row>
-    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
@@ -4911,9 +4949,18 @@
     <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
     </row>
+    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A56">
-    <sortCondition ref="A38:A56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A59">
+    <sortCondition ref="A54:A59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -5473,10 +5520,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F558FF6-EAD4-40C5-B66E-B8C70281DB1C}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5621,142 +5668,147 @@
     </row>
     <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A54">
-    <sortCondition ref="A45:A54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A55">
+    <sortCondition ref="A46:A55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
